--- a/biology/Médecine/Centre_hospitalier_spécialisé_de_Jury/Centre_hospitalier_spécialisé_de_Jury.xlsx
+++ b/biology/Médecine/Centre_hospitalier_spécialisé_de_Jury/Centre_hospitalier_spécialisé_de_Jury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_sp%C3%A9cialis%C3%A9_de_Jury</t>
+          <t>Centre_hospitalier_spécialisé_de_Jury</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre Hospitalier de Jury, dit « C.H. de Jury », est un établissement public de santé mentale implanté à Jury, en Moselle.
-Situé à environ 10 kilomètres de Metz[1], il est le principal établissement de soins psychiatriques en Moselle.
-Il est « l'un des éléments fondamentaux de la réorganisation de la santé mentale en Moselle »[2].
+Situé à environ 10 kilomètres de Metz, il est le principal établissement de soins psychiatriques en Moselle.
+Il est « l'un des éléments fondamentaux de la réorganisation de la santé mentale en Moselle ».
 A partir du 1er janvier 2024, le C.H. de Jury a changé de nom pour devenir EPSM Metz Jury.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_sp%C3%A9cialis%C3%A9_de_Jury</t>
+          <t>Centre_hospitalier_spécialisé_de_Jury</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,13 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Construction et inauguration
-La construction du centre hospitalier débute en mars 1969. Le terrain militaire de Jury est en cours de déboisement. La première réunion du conseil de surveillance a lieu le 17 avril 1969 à la préfecture de la Moselle, à Metz. Entre 1970 et 1972 a lieu un concours ouvert aux futurs infirmiers du centre en formation dans les établissements du département. Le Centre Psychothérapeutique de Jury est ouvert le 16 août 1972[3]. C'est un hôpital constituant comme un village, en dehors de la ville, avec sept cent cinquante lits sur une soixantaine d'hectares boisés. À l'intérieur du terrain, 7 kilomètres de voies goudronnées ont été nécessaires[4].
-Années 1970, 1980 et 1990
-En 1976 est construite une petite chapelle au sein de l'établissement.
-Depuis 2000
-En 2009, une grève éclate pour défendre le maintien de la prise en charge de la mutuelle par l'établissement. Après 17 jours de forte mobilisation, le piquet de grève est levé.
-En 2018, un mouvement social au sein de l'hôpital fait état de tensions dues au manque de personnel et à la baisse des dotations publiques[5].
+          <t>Construction et inauguration</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La construction du centre hospitalier débute en mars 1969. Le terrain militaire de Jury est en cours de déboisement. La première réunion du conseil de surveillance a lieu le 17 avril 1969 à la préfecture de la Moselle, à Metz. Entre 1970 et 1972 a lieu un concours ouvert aux futurs infirmiers du centre en formation dans les établissements du département. Le Centre Psychothérapeutique de Jury est ouvert le 16 août 1972. C'est un hôpital constituant comme un village, en dehors de la ville, avec sept cent cinquante lits sur une soixantaine d'hectares boisés. À l'intérieur du terrain, 7 kilomètres de voies goudronnées ont été nécessaires.
 </t>
         </is>
       </c>
@@ -534,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_sp%C3%A9cialis%C3%A9_de_Jury</t>
+          <t>Centre_hospitalier_spécialisé_de_Jury</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,15 +561,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Années 1970, 1980 et 1990</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1976 est construite une petite chapelle au sein de l'établissement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_spécialisé_de_Jury</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_sp%C3%A9cialis%C3%A9_de_Jury</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Depuis 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, une grève éclate pour défendre le maintien de la prise en charge de la mutuelle par l'établissement. Après 17 jours de forte mobilisation, le piquet de grève est levé.
+En 2018, un mouvement social au sein de l'hôpital fait état de tensions dues au manque de personnel et à la baisse des dotations publiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_spécialisé_de_Jury</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_sp%C3%A9cialis%C3%A9_de_Jury</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Soins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre hospitalier a récemment développé la médiation thérapeutique[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier a récemment développé la médiation thérapeutique.
 Il a aussi développé le projet « Airmes » (Ateliers intersectoriels de rééducations, médiations et espace social) en proposant aux patients des activités physiques et sportives adaptées, de l’ergothérapie, des ateliers d'art thérapie, d'esthétique, de relaxation, de peinture, d'art graphique, d'informatique et de lecture
-[7].
-Il propose des soins pour l'autisme[8].
+.
+Il propose des soins pour l'autisme.
 </t>
         </is>
       </c>
